--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl11-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ccl11-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>3.498267</v>
+        <v>0.738254</v>
       </c>
       <c r="H2">
-        <v>10.494801</v>
+        <v>2.214762</v>
       </c>
       <c r="I2">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="J2">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2315733333333333</v>
+        <v>0.1143813333333333</v>
       </c>
       <c r="N2">
-        <v>0.69472</v>
+        <v>0.343144</v>
       </c>
       <c r="O2">
-        <v>0.2371078251520917</v>
+        <v>0.128300337591142</v>
       </c>
       <c r="P2">
-        <v>0.2371078251520917</v>
+        <v>0.1283003375911419</v>
       </c>
       <c r="Q2">
-        <v>0.81010535008</v>
+        <v>0.08444247685866667</v>
       </c>
       <c r="R2">
-        <v>7.290948150719999</v>
+        <v>0.759982291728</v>
       </c>
       <c r="S2">
-        <v>0.006288786070944273</v>
+        <v>0.0007301982832158522</v>
       </c>
       <c r="T2">
-        <v>0.006288786070944274</v>
+        <v>0.0007301982832158521</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>3.498267</v>
+        <v>0.738254</v>
       </c>
       <c r="H3">
-        <v>10.494801</v>
+        <v>2.214762</v>
       </c>
       <c r="I3">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="J3">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.160286</v>
       </c>
       <c r="O3">
-        <v>0.7373052671097876</v>
+        <v>0.8077233554817153</v>
       </c>
       <c r="P3">
-        <v>0.7373052671097876</v>
+        <v>0.8077233554817151</v>
       </c>
       <c r="Q3">
-        <v>2.519085741454</v>
+        <v>0.5316132602146667</v>
       </c>
       <c r="R3">
-        <v>22.671771673086</v>
+        <v>4.784519341932</v>
       </c>
       <c r="S3">
-        <v>0.01955547055800311</v>
+        <v>0.004597012124516939</v>
       </c>
       <c r="T3">
-        <v>0.01955547055800311</v>
+        <v>0.004597012124516939</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>3.498267</v>
+        <v>0.738254</v>
       </c>
       <c r="H4">
-        <v>10.494801</v>
+        <v>2.214762</v>
       </c>
       <c r="I4">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="J4">
-        <v>0.02652289550929144</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,33 +679,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02498966666666667</v>
+        <v>0.03357866666666667</v>
       </c>
       <c r="N4">
-        <v>0.07496900000000001</v>
+        <v>0.100736</v>
       </c>
       <c r="O4">
-        <v>0.02558690773812063</v>
+        <v>0.03766483694187069</v>
       </c>
       <c r="P4">
-        <v>0.02558690773812063</v>
+        <v>0.03766483694187069</v>
       </c>
       <c r="Q4">
-        <v>0.08742052624100001</v>
+        <v>0.02478958498133333</v>
       </c>
       <c r="R4">
-        <v>0.786784736169</v>
+        <v>0.223106264832</v>
       </c>
       <c r="S4">
-        <v>0.0006786388803440541</v>
+        <v>0.0002143626415091975</v>
       </c>
       <c r="T4">
-        <v>0.0006786388803440542</v>
+        <v>0.0002143626415091975</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>122.458089</v>
+        <v>0.738254</v>
       </c>
       <c r="H5">
-        <v>367.374267</v>
+        <v>2.214762</v>
       </c>
       <c r="I5">
-        <v>0.9284434546632694</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="J5">
-        <v>0.9284434546632696</v>
+        <v>0.005691320045803731</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2315733333333333</v>
+        <v>0.023457</v>
       </c>
       <c r="N5">
-        <v>0.69472</v>
+        <v>0.070371</v>
       </c>
       <c r="O5">
-        <v>0.2371078251520917</v>
+        <v>0.02631146998527222</v>
       </c>
       <c r="P5">
-        <v>0.2371078251520917</v>
+        <v>0.02631146998527222</v>
       </c>
       <c r="Q5">
-        <v>28.35802786336</v>
+        <v>0.017317224078</v>
       </c>
       <c r="R5">
-        <v>255.22225077024</v>
+        <v>0.155855016702</v>
       </c>
       <c r="S5">
-        <v>0.2201412083119025</v>
+        <v>0.000149746996561743</v>
       </c>
       <c r="T5">
-        <v>0.2201412083119025</v>
+        <v>0.000149746996561743</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,40 +791,40 @@
         <v>367.374267</v>
       </c>
       <c r="I6">
-        <v>0.9284434546632694</v>
+        <v>0.9440493064670392</v>
       </c>
       <c r="J6">
-        <v>0.9284434546632696</v>
+        <v>0.9440493064670391</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.7200953333333334</v>
+        <v>0.1143813333333333</v>
       </c>
       <c r="N6">
-        <v>2.160286</v>
+        <v>0.343144</v>
       </c>
       <c r="O6">
-        <v>0.7373052671097876</v>
+        <v>0.128300337591142</v>
       </c>
       <c r="P6">
-        <v>0.7373052671097876</v>
+        <v>0.1283003375911419</v>
       </c>
       <c r="Q6">
-        <v>88.18149841781801</v>
+        <v>14.006919497272</v>
       </c>
       <c r="R6">
-        <v>793.633485760362</v>
+        <v>126.062275475448</v>
       </c>
       <c r="S6">
-        <v>0.6845462493368358</v>
+        <v>0.1211218447224046</v>
       </c>
       <c r="T6">
-        <v>0.6845462493368359</v>
+        <v>0.1211218447224045</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,45 +853,45 @@
         <v>367.374267</v>
       </c>
       <c r="I7">
-        <v>0.9284434546632694</v>
+        <v>0.9440493064670392</v>
       </c>
       <c r="J7">
-        <v>0.9284434546632696</v>
+        <v>0.9440493064670391</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.02498966666666667</v>
+        <v>0.7200953333333334</v>
       </c>
       <c r="N7">
-        <v>0.07496900000000001</v>
+        <v>2.160286</v>
       </c>
       <c r="O7">
-        <v>0.02558690773812063</v>
+        <v>0.8077233554817153</v>
       </c>
       <c r="P7">
-        <v>0.02558690773812063</v>
+        <v>0.8077233554817151</v>
       </c>
       <c r="Q7">
-        <v>3.060186824747</v>
+        <v>88.18149841781802</v>
       </c>
       <c r="R7">
-        <v>27.541681422723</v>
+        <v>793.6334857603621</v>
       </c>
       <c r="S7">
-        <v>0.02375599701453106</v>
+        <v>0.762530673559743</v>
       </c>
       <c r="T7">
-        <v>0.02375599701453106</v>
+        <v>0.7625306735597429</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.465569666666667</v>
+        <v>122.458089</v>
       </c>
       <c r="H8">
-        <v>16.396709</v>
+        <v>367.374267</v>
       </c>
       <c r="I8">
-        <v>0.04143844171063926</v>
+        <v>0.9440493064670392</v>
       </c>
       <c r="J8">
-        <v>0.04143844171063927</v>
+        <v>0.9440493064670391</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.2315733333333333</v>
+        <v>0.03357866666666667</v>
       </c>
       <c r="N8">
-        <v>0.69472</v>
+        <v>0.100736</v>
       </c>
       <c r="O8">
-        <v>0.2371078251520917</v>
+        <v>0.03766483694187069</v>
       </c>
       <c r="P8">
-        <v>0.2371078251520917</v>
+        <v>0.03766483694187069</v>
       </c>
       <c r="Q8">
-        <v>1.265680186275556</v>
+        <v>4.111979351168</v>
       </c>
       <c r="R8">
-        <v>11.39112167648</v>
+        <v>37.00781416051201</v>
       </c>
       <c r="S8">
-        <v>0.009825378791701398</v>
+        <v>0.03555746319316714</v>
       </c>
       <c r="T8">
-        <v>0.0098253787917014</v>
+        <v>0.03555746319316713</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.465569666666667</v>
+        <v>122.458089</v>
       </c>
       <c r="H9">
-        <v>16.396709</v>
+        <v>367.374267</v>
       </c>
       <c r="I9">
-        <v>0.04143844171063926</v>
+        <v>0.9440493064670392</v>
       </c>
       <c r="J9">
-        <v>0.04143844171063927</v>
+        <v>0.9440493064670391</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.7200953333333334</v>
+        <v>0.023457</v>
       </c>
       <c r="N9">
-        <v>2.160286</v>
+        <v>0.070371</v>
       </c>
       <c r="O9">
-        <v>0.7373052671097876</v>
+        <v>0.02631146998527222</v>
       </c>
       <c r="P9">
-        <v>0.7373052671097876</v>
+        <v>0.02631146998527222</v>
       </c>
       <c r="Q9">
-        <v>3.93573121097489</v>
+        <v>2.872499393673001</v>
       </c>
       <c r="R9">
-        <v>35.421580898774</v>
+        <v>25.852494543057</v>
       </c>
       <c r="S9">
-        <v>0.03055278133407625</v>
+        <v>0.02483932499172456</v>
       </c>
       <c r="T9">
-        <v>0.03055278133407625</v>
+        <v>0.02483932499172455</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.465569666666667</v>
+        <v>5.698467</v>
       </c>
       <c r="H10">
-        <v>16.396709</v>
+        <v>17.095401</v>
       </c>
       <c r="I10">
-        <v>0.04143844171063926</v>
+        <v>0.0439304080539368</v>
       </c>
       <c r="J10">
-        <v>0.04143844171063927</v>
+        <v>0.04393040805393679</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,33 +1051,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.02498966666666667</v>
+        <v>0.1143813333333333</v>
       </c>
       <c r="N10">
-        <v>0.07496900000000001</v>
+        <v>0.343144</v>
       </c>
       <c r="O10">
-        <v>0.02558690773812063</v>
+        <v>0.128300337591142</v>
       </c>
       <c r="P10">
-        <v>0.02558690773812063</v>
+        <v>0.1283003375911419</v>
       </c>
       <c r="Q10">
-        <v>0.1365827641134445</v>
+        <v>0.651798253416</v>
       </c>
       <c r="R10">
-        <v>1.229244877021</v>
+        <v>5.866184280744</v>
       </c>
       <c r="S10">
-        <v>0.001060281584861617</v>
+        <v>0.005636286183836712</v>
       </c>
       <c r="T10">
-        <v>0.001060281584861617</v>
+        <v>0.005636286183836711</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4741939999999999</v>
+        <v>5.698467</v>
       </c>
       <c r="H11">
-        <v>1.422582</v>
+        <v>17.095401</v>
       </c>
       <c r="I11">
-        <v>0.003595208116799817</v>
+        <v>0.0439304080539368</v>
       </c>
       <c r="J11">
-        <v>0.003595208116799817</v>
+        <v>0.04393040805393679</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,33 +1113,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2315733333333333</v>
+        <v>0.7200953333333334</v>
       </c>
       <c r="N11">
-        <v>0.69472</v>
+        <v>2.160286</v>
       </c>
       <c r="O11">
-        <v>0.2371078251520917</v>
+        <v>0.8077233554817153</v>
       </c>
       <c r="P11">
-        <v>0.2371078251520917</v>
+        <v>0.8077233554817151</v>
       </c>
       <c r="Q11">
-        <v>0.1098106852266666</v>
+        <v>4.103439493854</v>
       </c>
       <c r="R11">
-        <v>0.9882961670399999</v>
+        <v>36.930955444686</v>
       </c>
       <c r="S11">
-        <v>0.0008524519775435519</v>
+        <v>0.0354836166010068</v>
       </c>
       <c r="T11">
-        <v>0.000852451977543552</v>
+        <v>0.03548361660100679</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,51 +1157,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4741939999999999</v>
+        <v>5.698467</v>
       </c>
       <c r="H12">
-        <v>1.422582</v>
+        <v>17.095401</v>
       </c>
       <c r="I12">
-        <v>0.003595208116799817</v>
+        <v>0.0439304080539368</v>
       </c>
       <c r="J12">
-        <v>0.003595208116799817</v>
+        <v>0.04393040805393679</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.7200953333333334</v>
+        <v>0.03357866666666667</v>
       </c>
       <c r="N12">
-        <v>2.160286</v>
+        <v>0.100736</v>
       </c>
       <c r="O12">
-        <v>0.7373052671097876</v>
+        <v>0.03766483694187069</v>
       </c>
       <c r="P12">
-        <v>0.7373052671097876</v>
+        <v>0.03766483694187069</v>
       </c>
       <c r="Q12">
-        <v>0.3414648864946667</v>
+        <v>0.191346923904</v>
       </c>
       <c r="R12">
-        <v>3.073183978452</v>
+        <v>1.722122315136</v>
       </c>
       <c r="S12">
-        <v>0.002650765880872365</v>
+        <v>0.001654631656141372</v>
       </c>
       <c r="T12">
-        <v>0.002650765880872366</v>
+        <v>0.001654631656141372</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4741939999999999</v>
+        <v>5.698467</v>
       </c>
       <c r="H13">
-        <v>1.422582</v>
+        <v>17.095401</v>
       </c>
       <c r="I13">
-        <v>0.003595208116799817</v>
+        <v>0.0439304080539368</v>
       </c>
       <c r="J13">
-        <v>0.003595208116799817</v>
+        <v>0.04393040805393679</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1237,276 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.02498966666666667</v>
+        <v>0.023457</v>
       </c>
       <c r="N13">
-        <v>0.07496900000000001</v>
+        <v>0.070371</v>
       </c>
       <c r="O13">
-        <v>0.02558690773812063</v>
+        <v>0.02631146998527222</v>
       </c>
       <c r="P13">
-        <v>0.02558690773812063</v>
+        <v>0.02631146998527222</v>
       </c>
       <c r="Q13">
-        <v>0.01184994999533333</v>
+        <v>0.133668940419</v>
       </c>
       <c r="R13">
-        <v>0.106649549958</v>
+        <v>1.203020463771</v>
       </c>
       <c r="S13">
-        <v>9.199025838389934E-05</v>
+        <v>0.001155873612951919</v>
       </c>
       <c r="T13">
-        <v>9.199025838389935E-05</v>
+        <v>0.001155873612951919</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.8209666666666666</v>
+      </c>
+      <c r="H14">
+        <v>2.4629</v>
+      </c>
+      <c r="I14">
+        <v>0.006328965433220369</v>
+      </c>
+      <c r="J14">
+        <v>0.006328965433220369</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.1143813333333333</v>
+      </c>
+      <c r="N14">
+        <v>0.343144</v>
+      </c>
+      <c r="O14">
+        <v>0.128300337591142</v>
+      </c>
+      <c r="P14">
+        <v>0.1283003375911419</v>
+      </c>
+      <c r="Q14">
+        <v>0.09390326195555555</v>
+      </c>
+      <c r="R14">
+        <v>0.8451293576</v>
+      </c>
+      <c r="S14">
+        <v>0.0008120084016848413</v>
+      </c>
+      <c r="T14">
+        <v>0.0008120084016848411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.8209666666666666</v>
+      </c>
+      <c r="H15">
+        <v>2.4629</v>
+      </c>
+      <c r="I15">
+        <v>0.006328965433220369</v>
+      </c>
+      <c r="J15">
+        <v>0.006328965433220369</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.7200953333333334</v>
+      </c>
+      <c r="N15">
+        <v>2.160286</v>
+      </c>
+      <c r="O15">
+        <v>0.8077233554817153</v>
+      </c>
+      <c r="P15">
+        <v>0.8077233554817151</v>
+      </c>
+      <c r="Q15">
+        <v>0.591174265488889</v>
+      </c>
+      <c r="R15">
+        <v>5.3205683894</v>
+      </c>
+      <c r="S15">
+        <v>0.005112053196448544</v>
+      </c>
+      <c r="T15">
+        <v>0.005112053196448543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.8209666666666666</v>
+      </c>
+      <c r="H16">
+        <v>2.4629</v>
+      </c>
+      <c r="I16">
+        <v>0.006328965433220369</v>
+      </c>
+      <c r="J16">
+        <v>0.006328965433220369</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.03357866666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.100736</v>
+      </c>
+      <c r="O16">
+        <v>0.03766483694187069</v>
+      </c>
+      <c r="P16">
+        <v>0.03766483694187069</v>
+      </c>
+      <c r="Q16">
+        <v>0.02756696604444444</v>
+      </c>
+      <c r="R16">
+        <v>0.2481026944</v>
+      </c>
+      <c r="S16">
+        <v>0.0002383794510529812</v>
+      </c>
+      <c r="T16">
+        <v>0.0002383794510529812</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8209666666666666</v>
+      </c>
+      <c r="H17">
+        <v>2.4629</v>
+      </c>
+      <c r="I17">
+        <v>0.006328965433220369</v>
+      </c>
+      <c r="J17">
+        <v>0.006328965433220369</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.023457</v>
+      </c>
+      <c r="N17">
+        <v>0.070371</v>
+      </c>
+      <c r="O17">
+        <v>0.02631146998527222</v>
+      </c>
+      <c r="P17">
+        <v>0.02631146998527222</v>
+      </c>
+      <c r="Q17">
+        <v>0.0192574151</v>
+      </c>
+      <c r="R17">
+        <v>0.1733167359</v>
+      </c>
+      <c r="S17">
+        <v>0.0001665243840340031</v>
+      </c>
+      <c r="T17">
+        <v>0.0001665243840340031</v>
       </c>
     </row>
   </sheetData>
